--- a/map_data.xlsx
+++ b/map_data.xlsx
@@ -5,14 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidwang/git/burnout_routing/interactive_map/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidwang/git/paradise_map/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16080" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Events" sheetId="1" r:id="rId1"/>
+    <sheet name="Locations" sheetId="2" r:id="rId2"/>
+    <sheet name="Event Destinations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,14 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
   <si>
     <t>Event Name</t>
   </si>
   <si>
-    <t>Event Type</t>
-  </si>
-  <si>
     <t>X Coordinate</t>
   </si>
   <si>
@@ -162,13 +161,70 @@
   </si>
   <si>
     <t>Waterway to Go</t>
+  </si>
+  <si>
+    <t>Location Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Downtown Paradise Yard</t>
+  </si>
+  <si>
+    <t>Palm Bay Heights Yard</t>
+  </si>
+  <si>
+    <t>Harbor Town Yard</t>
+  </si>
+  <si>
+    <t>Silver Lake Yard</t>
+  </si>
+  <si>
+    <t>White Mountain Yard</t>
+  </si>
+  <si>
+    <t>Junkyard</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Wildcats Baseball Stadium</t>
+  </si>
+  <si>
+    <t>Waterfront Plaza</t>
+  </si>
+  <si>
+    <t>Maplemount Country Club</t>
+  </si>
+  <si>
+    <t>Crystal Summit Observatory</t>
+  </si>
+  <si>
+    <t>Coast Guard HQ</t>
+  </si>
+  <si>
+    <t>Fort Lawrence Naval Yard</t>
+  </si>
+  <si>
+    <t>Wind Farm</t>
+  </si>
+  <si>
+    <t>Lone Stallion Ranch</t>
+  </si>
+  <si>
+    <t>Event Destination Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm:ss.0;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,6 +254,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,10 +289,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,20 +573,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,567 +598,690 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1150</v>
+      </c>
+      <c r="C2">
+        <v>800</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1150</v>
-      </c>
-      <c r="D2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B3">
+        <v>725</v>
+      </c>
+      <c r="C3">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>725</v>
-      </c>
-      <c r="D3">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4">
+        <v>278</v>
+      </c>
+      <c r="C4">
+        <v>584</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>278</v>
-      </c>
-      <c r="D4">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B5">
+        <v>908</v>
+      </c>
+      <c r="C5">
+        <v>1050</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>908</v>
-      </c>
-      <c r="D5">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B6">
+        <v>1133</v>
+      </c>
+      <c r="C6">
+        <v>949</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1133</v>
-      </c>
-      <c r="D6">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B7">
+        <v>1090</v>
+      </c>
+      <c r="C7">
+        <v>350</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>1090</v>
-      </c>
-      <c r="D7">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B8">
+        <v>1405</v>
+      </c>
+      <c r="C8">
+        <v>338</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1405</v>
-      </c>
-      <c r="D8">
+      <c r="B9">
+        <v>600</v>
+      </c>
+      <c r="C9">
+        <v>402</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>322</v>
+      </c>
+      <c r="C10">
+        <v>616</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>263</v>
+      </c>
+      <c r="C11">
+        <v>699</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1372</v>
+      </c>
+      <c r="C12">
+        <v>754</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>1138</v>
+      </c>
+      <c r="C13">
+        <v>635</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>235</v>
+      </c>
+      <c r="C14">
+        <v>332</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>1048</v>
+      </c>
+      <c r="C15">
+        <v>346</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>517</v>
+      </c>
+      <c r="C16">
+        <v>208</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
         <v>338</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>600</v>
-      </c>
-      <c r="D9">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>322</v>
-      </c>
-      <c r="D10">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>263</v>
-      </c>
-      <c r="D11">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>1372</v>
-      </c>
-      <c r="D12">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>1138</v>
-      </c>
-      <c r="D13">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>235</v>
-      </c>
-      <c r="D14">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>1048</v>
-      </c>
-      <c r="D15">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>517</v>
-      </c>
-      <c r="D16">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="C17">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>338</v>
-      </c>
-      <c r="D17">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="B18">
+        <v>1045</v>
+      </c>
+      <c r="C18">
+        <v>973</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>1045</v>
-      </c>
-      <c r="D18">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B19">
+        <v>460</v>
+      </c>
+      <c r="C19">
+        <v>1139</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>460</v>
-      </c>
-      <c r="D19">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B20">
+        <v>1399</v>
+      </c>
+      <c r="C20">
+        <v>426</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>1399</v>
-      </c>
-      <c r="D20">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B21">
+        <v>703</v>
+      </c>
+      <c r="C21">
+        <v>769</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>703</v>
-      </c>
-      <c r="D21">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="B22">
+        <v>1543</v>
+      </c>
+      <c r="C22">
+        <v>698</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>1543</v>
-      </c>
-      <c r="D22">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="B23">
+        <v>110</v>
+      </c>
+      <c r="C23">
+        <v>646</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>110</v>
-      </c>
-      <c r="D23">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="B24">
+        <v>1304</v>
+      </c>
+      <c r="C24">
+        <v>318</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>1304</v>
-      </c>
-      <c r="D24">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="B25">
+        <v>260</v>
+      </c>
+      <c r="C25">
+        <v>296</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>260</v>
-      </c>
-      <c r="D25">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="B26">
+        <v>1032</v>
+      </c>
+      <c r="C26">
+        <v>883</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>1032</v>
-      </c>
-      <c r="D26">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B27">
+        <v>505</v>
+      </c>
+      <c r="C27">
+        <v>881</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>505</v>
-      </c>
-      <c r="D27">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="B28">
+        <v>840</v>
+      </c>
+      <c r="C28">
+        <v>1020</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>840</v>
-      </c>
-      <c r="D28">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="B29">
+        <v>1246</v>
+      </c>
+      <c r="C29">
+        <v>559</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <v>1246</v>
-      </c>
-      <c r="D29">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="B30">
+        <v>1511</v>
+      </c>
+      <c r="C30">
+        <v>762</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>1511</v>
-      </c>
-      <c r="D30">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="B31">
+        <v>832</v>
+      </c>
+      <c r="C31">
+        <v>932</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>832</v>
-      </c>
-      <c r="D31">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="B32">
+        <v>1458</v>
+      </c>
+      <c r="C32">
+        <v>655</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>1458</v>
-      </c>
-      <c r="D32">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="B33">
+        <v>1013</v>
+      </c>
+      <c r="C33">
+        <v>807</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>1013</v>
-      </c>
-      <c r="D33">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="B34">
+        <v>583</v>
+      </c>
+      <c r="C34">
+        <v>288</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>583</v>
-      </c>
-      <c r="D34">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="B35">
+        <v>1498</v>
+      </c>
+      <c r="C35">
+        <v>852</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>1498</v>
-      </c>
-      <c r="D35">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="B36">
+        <v>1468</v>
+      </c>
+      <c r="C36">
+        <v>814</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>1468</v>
-      </c>
-      <c r="D36">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="B37">
+        <v>1496</v>
+      </c>
+      <c r="C37">
+        <v>468</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>1496</v>
-      </c>
-      <c r="D37">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="B38">
+        <v>1159</v>
+      </c>
+      <c r="C38">
+        <v>457</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38">
-        <v>1159</v>
-      </c>
-      <c r="D38">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="B39">
+        <v>210</v>
+      </c>
+      <c r="C39">
+        <v>892</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39">
-        <v>210</v>
-      </c>
-      <c r="D39">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="B40">
+        <v>1450</v>
+      </c>
+      <c r="C40">
+        <v>485</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>1450</v>
-      </c>
-      <c r="D40">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
+      <c r="B41">
+        <v>867</v>
       </c>
       <c r="C41">
-        <v>867</v>
-      </c>
-      <c r="D41">
         <v>805</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1134,4 +1329,226 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>1502</v>
+      </c>
+      <c r="C2">
+        <v>389</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>1164</v>
+      </c>
+      <c r="C3">
+        <v>701</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>834</v>
+      </c>
+      <c r="C4">
+        <v>994</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>690</v>
+      </c>
+      <c r="C5">
+        <v>437</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>438</v>
+      </c>
+      <c r="C6">
+        <v>875</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>1074</v>
+      </c>
+      <c r="C2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>1510</v>
+      </c>
+      <c r="C3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>1560</v>
+      </c>
+      <c r="C4">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>1512</v>
+      </c>
+      <c r="C5">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>907</v>
+      </c>
+      <c r="C6">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>490</v>
+      </c>
+      <c r="C7">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>230</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/map_data.xlsx
+++ b/map_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="-3160" windowWidth="19200" windowHeight="19700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="165">
   <si>
     <t>X Coordinate</t>
   </si>
@@ -437,6 +437,93 @@
   </si>
   <si>
     <t>Hamilton &amp; 5th</t>
+  </si>
+  <si>
+    <t>About Town</t>
+  </si>
+  <si>
+    <t>Stunt Run</t>
+  </si>
+  <si>
+    <t>Chubb &amp; West Lake</t>
+  </si>
+  <si>
+    <t>Base Jumper</t>
+  </si>
+  <si>
+    <t>South Rouse &amp; Ross</t>
+  </si>
+  <si>
+    <t>Bravo, Encore!</t>
+  </si>
+  <si>
+    <t>3rd &amp; Lambert</t>
+  </si>
+  <si>
+    <t>Cliffhanger</t>
+  </si>
+  <si>
+    <t>Chubb &amp; Hans</t>
+  </si>
+  <si>
+    <t>Elevation</t>
+  </si>
+  <si>
+    <t>1st &amp; Root</t>
+  </si>
+  <si>
+    <t>Express Yourself</t>
+  </si>
+  <si>
+    <t>South Mountain &amp; South Bay Expressway</t>
+  </si>
+  <si>
+    <t>Falling Down</t>
+  </si>
+  <si>
+    <t>North Mountain &amp; Uphill</t>
+  </si>
+  <si>
+    <t>Hang 10</t>
+  </si>
+  <si>
+    <t>Lambert Parkway &amp; 9th</t>
+  </si>
+  <si>
+    <t>Lighthouse Party</t>
+  </si>
+  <si>
+    <t>Patterson &amp; 9th</t>
+  </si>
+  <si>
+    <t>Near the Edge</t>
+  </si>
+  <si>
+    <t>Nelson &amp; Read</t>
+  </si>
+  <si>
+    <t>Offroad Parking</t>
+  </si>
+  <si>
+    <t>Lambert &amp; Hall</t>
+  </si>
+  <si>
+    <t>Over Construction</t>
+  </si>
+  <si>
+    <t>Harber &amp; Warren</t>
+  </si>
+  <si>
+    <t>Rack 'Em Up</t>
+  </si>
+  <si>
+    <t>East Lake &amp; Rack</t>
+  </si>
+  <si>
+    <t>Unconventional</t>
+  </si>
+  <si>
+    <t>Andersen &amp; Angus</t>
   </si>
 </sst>
 </file>
@@ -792,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1925,6 +2012,276 @@
       </c>
       <c r="F56" s="4" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="4">
+        <v>314</v>
+      </c>
+      <c r="C57" s="4">
+        <v>469</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="4">
+        <v>802</v>
+      </c>
+      <c r="C58" s="4">
+        <v>464</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1071</v>
+      </c>
+      <c r="C59" s="4">
+        <v>619</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="4">
+        <v>373</v>
+      </c>
+      <c r="C60" s="4">
+        <v>867</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1377</v>
+      </c>
+      <c r="C61" s="4">
+        <v>803</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="4">
+        <v>571</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1077</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="4">
+        <v>120</v>
+      </c>
+      <c r="C63" s="4">
+        <v>467</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1091</v>
+      </c>
+      <c r="C64" s="4">
+        <v>400</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1434</v>
+      </c>
+      <c r="C65" s="4">
+        <v>447</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="4">
+        <v>370</v>
+      </c>
+      <c r="C66" s="4">
+        <v>210</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="4">
+        <v>900</v>
+      </c>
+      <c r="C67" s="4">
+        <v>913</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1109</v>
+      </c>
+      <c r="C68" s="4">
+        <v>867</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" s="4">
+        <v>636</v>
+      </c>
+      <c r="C69" s="4">
+        <v>586</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1560</v>
+      </c>
+      <c r="C70" s="4">
+        <v>652</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1974,6 +2331,11 @@
     <hyperlink ref="A52" r:id="rId43" tooltip="Safe Harbor"/>
     <hyperlink ref="A53" r:id="rId44" tooltip="Seeing Stars"/>
     <hyperlink ref="A56" r:id="rId45" tooltip="Strike Out"/>
+    <hyperlink ref="A60" r:id="rId46" tooltip="Cliffhanger (Burnout Paradise)"/>
+    <hyperlink ref="A62" r:id="rId47" tooltip="Express Yourself"/>
+    <hyperlink ref="A63" r:id="rId48" tooltip="Falling Down (Burnout Paradise)"/>
+    <hyperlink ref="A64" r:id="rId49" tooltip="Hang 10"/>
+    <hyperlink ref="A68" r:id="rId50" tooltip="Over Construction"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/map_data.xlsx
+++ b/map_data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="165">
   <si>
     <t>X Coordinate</t>
   </si>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2447,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2459,7 +2459,7 @@
     <col min="2" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -2469,8 +2469,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -2480,8 +2483,11 @@
       <c r="C2">
         <v>278</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -2491,8 +2497,11 @@
       <c r="C3">
         <v>369</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2502,8 +2511,11 @@
       <c r="C4">
         <v>654</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -2513,8 +2525,11 @@
       <c r="C5">
         <v>816</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -2524,8 +2539,11 @@
       <c r="C6">
         <v>1050</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -2535,8 +2553,11 @@
       <c r="C7">
         <v>1122</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -2546,8 +2567,11 @@
       <c r="C8">
         <v>468</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -2556,6 +2580,9 @@
       </c>
       <c r="C9">
         <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
